--- a/99_その他/KPTによる振り返り結果.xlsx
+++ b/99_その他/KPTによる振り返り結果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22926"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_25fe\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\git\Repitition2\99_その他\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="11_E0343EB3D44E957094A4D0D913D49BD62C73FD7E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DE32A7E5-B1ED-4331-892F-42C221BC38C4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CDCF25-6FD9-4BB5-B4BD-23A1E29C46CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1050" windowWidth="13890" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +291,15 @@
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -300,6 +309,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -315,35 +342,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,11 +661,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="17.625" customWidth="1"/>
@@ -673,295 +673,282 @@
     <col min="9" max="9" width="32.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" customHeight="1">
+    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
-      <c r="D4" s="15" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B5" s="16" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B6" s="16"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="2" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="8"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B7" s="16"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="2" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="8"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B8" s="16"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="2" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="8"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B9" s="16"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="2" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="8"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B10" s="16"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="2" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="8"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B11" s="16"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="2" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="8"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B12" s="16"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B13" s="16" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="8"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="2" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="2" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="2" t="s">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="2" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B19" s="13" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="2" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="2" t="s">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="2" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="C5:C12"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D12:I12"/>
     <mergeCell ref="D23:I23"/>
     <mergeCell ref="D24:I24"/>
     <mergeCell ref="B1:C1"/>
@@ -978,6 +965,19 @@
     <mergeCell ref="B19:B24"/>
     <mergeCell ref="C19:C24"/>
     <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="C5:C12"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D12:I12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -985,18 +985,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1184,18 +1184,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A6D97BE-331D-44AA-9442-FFCFCC33FEA9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{569A35A1-39F9-4828-ABC4-F4D954A06DC6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{569A35A1-39F9-4828-ABC4-F4D954A06DC6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A6D97BE-331D-44AA-9442-FFCFCC33FEA9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
